--- a/Code/Results/Cases/Case_0_181/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_181/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1122888821161041</v>
+        <v>0.2097167003757363</v>
       </c>
       <c r="D2">
-        <v>0.07690030577373363</v>
+        <v>0.1683836165385131</v>
       </c>
       <c r="E2">
-        <v>0.07912628820665546</v>
+        <v>0.1572518775516087</v>
       </c>
       <c r="F2">
-        <v>1.31570455011925</v>
+        <v>1.585520969950892</v>
       </c>
       <c r="G2">
-        <v>1.081719305451145</v>
+        <v>0.9885403027151654</v>
       </c>
       <c r="H2">
-        <v>0.6230489430370483</v>
+        <v>0.9588152100885736</v>
       </c>
       <c r="I2">
-        <v>0.9400865392417757</v>
+        <v>1.107378677071793</v>
       </c>
       <c r="J2">
-        <v>0.09994857198986296</v>
+        <v>0.1853140390249806</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1029259134535394</v>
+        <v>0.2123279231338344</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.663121664604034</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
-        <v>3.548419648052572</v>
+        <v>3.943819789077793</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.104851551758955</v>
+        <v>0.2089922281124075</v>
       </c>
       <c r="D3">
-        <v>0.07306151383026105</v>
+        <v>0.1682660490980155</v>
       </c>
       <c r="E3">
-        <v>0.07431660011819119</v>
+        <v>0.1569064231003559</v>
       </c>
       <c r="F3">
-        <v>1.185783470661065</v>
+        <v>1.562029610908397</v>
       </c>
       <c r="G3">
-        <v>0.9602896322168135</v>
+        <v>0.9632484458719262</v>
       </c>
       <c r="H3">
-        <v>0.5712815492702958</v>
+        <v>0.9514223883851685</v>
       </c>
       <c r="I3">
-        <v>0.8460437425007612</v>
+        <v>1.090128063910122</v>
       </c>
       <c r="J3">
-        <v>0.09316944467225596</v>
+        <v>0.1846786843179515</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.09702394730891939</v>
+        <v>0.2120131430799503</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679681</v>
       </c>
       <c r="O3">
-        <v>3.182193316393892</v>
+        <v>3.874334649243139</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.100413693015831</v>
+        <v>0.2086295553525943</v>
       </c>
       <c r="D4">
-        <v>0.07078550761730185</v>
+        <v>0.1682508060830088</v>
       </c>
       <c r="E4">
-        <v>0.07145714766013</v>
+        <v>0.156754217974111</v>
       </c>
       <c r="F4">
-        <v>1.107684170545951</v>
+        <v>1.548410802478642</v>
       </c>
       <c r="G4">
-        <v>0.887086297371809</v>
+        <v>0.9482747664937534</v>
       </c>
       <c r="H4">
-        <v>0.5403009492389685</v>
+        <v>0.9473179711940674</v>
       </c>
       <c r="I4">
-        <v>0.7894981153136484</v>
+        <v>1.080104027687717</v>
       </c>
       <c r="J4">
-        <v>0.08913368590042126</v>
+        <v>0.1843640825306565</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.09352453137945815</v>
+        <v>0.2118993815216328</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375818</v>
       </c>
       <c r="O4">
-        <v>2.961871108489987</v>
+        <v>3.83374333843679</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09863583676294496</v>
+        <v>0.2085024639892339</v>
       </c>
       <c r="D5">
-        <v>0.06987748812384353</v>
+        <v>0.1682589471704716</v>
       </c>
       <c r="E5">
-        <v>0.07031420100917174</v>
+        <v>0.1567072846195892</v>
       </c>
       <c r="F5">
-        <v>1.076245764138719</v>
+        <v>1.543063623931715</v>
       </c>
       <c r="G5">
-        <v>0.8575655972950074</v>
+        <v>0.9423126072119317</v>
       </c>
       <c r="H5">
-        <v>0.5278645121643848</v>
+        <v>0.9457548628083714</v>
       </c>
       <c r="I5">
-        <v>0.7667324287384716</v>
+        <v>1.076162072721203</v>
       </c>
       <c r="J5">
-        <v>0.08751902019447755</v>
+        <v>0.1842548947160054</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.09212810827449402</v>
+        <v>0.2118730520794756</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
-        <v>2.873136365814759</v>
+        <v>3.817723608566013</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09834242425217354</v>
+        <v>0.2084826120749383</v>
       </c>
       <c r="D6">
-        <v>0.06972786272778109</v>
+        <v>0.1682611668560412</v>
       </c>
       <c r="E6">
-        <v>0.07012572711633425</v>
+        <v>0.1567004036796718</v>
       </c>
       <c r="F6">
-        <v>1.071047929961608</v>
+        <v>1.542187970625051</v>
       </c>
       <c r="G6">
-        <v>0.8526815893796851</v>
+        <v>0.9413310356305118</v>
       </c>
       <c r="H6">
-        <v>0.5258104382675697</v>
+        <v>0.9455019260078359</v>
       </c>
       <c r="I6">
-        <v>0.7629682691304041</v>
+        <v>1.075516149641338</v>
       </c>
       <c r="J6">
-        <v>0.08725266071176208</v>
+        <v>0.1842379134401213</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.09189797515568898</v>
+        <v>0.2118698908420669</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
-        <v>2.858462708597699</v>
+        <v>3.815095055259405</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1003895945443389</v>
+        <v>0.2086277574812456</v>
       </c>
       <c r="D7">
-        <v>0.07077318406746969</v>
+        <v>0.168250857717112</v>
       </c>
       <c r="E7">
-        <v>0.0714416447920172</v>
+        <v>0.1567535238725988</v>
       </c>
       <c r="F7">
-        <v>1.107258653581667</v>
+        <v>1.548337868022131</v>
       </c>
       <c r="G7">
-        <v>0.8866869536462332</v>
+        <v>0.9481937929152764</v>
       </c>
       <c r="H7">
-        <v>0.5401324820863493</v>
+        <v>0.9472964471265044</v>
       </c>
       <c r="I7">
-        <v>0.7891899978245505</v>
+        <v>1.080050286271579</v>
       </c>
       <c r="J7">
-        <v>0.08911179117493617</v>
+        <v>0.1843625329574934</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.09350558094389072</v>
+        <v>0.2118989452889579</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851395496</v>
       </c>
       <c r="O7">
-        <v>2.960670275997416</v>
+        <v>3.833525178567527</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.109696692494083</v>
+        <v>0.2094498752796596</v>
       </c>
       <c r="D8">
-        <v>0.07555931251659587</v>
+        <v>0.1683312804555186</v>
       </c>
       <c r="E8">
-        <v>0.07744767347412562</v>
+        <v>0.1571203477302276</v>
       </c>
       <c r="F8">
-        <v>1.270540106642898</v>
+        <v>1.577254170375852</v>
       </c>
       <c r="G8">
-        <v>1.039550190200174</v>
+        <v>0.9797043527197076</v>
       </c>
       <c r="H8">
-        <v>0.6050238302056528</v>
+        <v>0.956176000301781</v>
       </c>
       <c r="I8">
-        <v>0.9073972918589277</v>
+        <v>1.101312856878153</v>
       </c>
       <c r="J8">
-        <v>0.0975836556941303</v>
+        <v>0.1850793129123574</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.100864057020992</v>
+        <v>0.2122029039557418</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209825</v>
       </c>
       <c r="O8">
-        <v>3.421143729983385</v>
+        <v>3.919431255942072</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1290540885372309</v>
+        <v>0.2117123634842812</v>
       </c>
       <c r="D9">
-        <v>0.08563165406061302</v>
+        <v>0.1689394810343856</v>
       </c>
       <c r="E9">
-        <v>0.09003037571011063</v>
+        <v>0.1583139770019706</v>
       </c>
       <c r="F9">
-        <v>1.605610492425583</v>
+        <v>1.640343245647259</v>
       </c>
       <c r="G9">
-        <v>1.35154903063588</v>
+        <v>1.0459087253912</v>
       </c>
       <c r="H9">
-        <v>0.7393414534311376</v>
+        <v>0.977034632017876</v>
       </c>
       <c r="I9">
-        <v>1.149862167601597</v>
+        <v>1.147513289427891</v>
       </c>
       <c r="J9">
-        <v>0.1152947752846742</v>
+        <v>0.1870830904522549</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1163622808910887</v>
+        <v>0.2134285881979281</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550789</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
-        <v>4.364741184859383</v>
+        <v>4.104339501691754</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1440781865263858</v>
+        <v>0.2137693990294878</v>
       </c>
       <c r="D10">
-        <v>0.09351630819499945</v>
+        <v>0.169659388917637</v>
       </c>
       <c r="E10">
-        <v>0.0998578302706683</v>
+        <v>0.1594789656587814</v>
       </c>
       <c r="F10">
-        <v>1.863274627250107</v>
+        <v>1.690590273277024</v>
       </c>
       <c r="G10">
-        <v>1.590472241195442</v>
+        <v>1.097250556706456</v>
       </c>
       <c r="H10">
-        <v>0.8433597280127003</v>
+        <v>0.9944575747461215</v>
       </c>
       <c r="I10">
-        <v>1.33625496809556</v>
+        <v>1.184206116318762</v>
       </c>
       <c r="J10">
-        <v>0.1291164761896724</v>
+        <v>0.1889190421312961</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1285222634306322</v>
+        <v>0.2147115437645724</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
-        <v>5.089659024545028</v>
+        <v>4.250237925732279</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1511180875010325</v>
+        <v>0.2147905982925948</v>
       </c>
       <c r="D11">
-        <v>0.09722430871250509</v>
+        <v>0.170045870394226</v>
       </c>
       <c r="E11">
-        <v>0.1044775171239039</v>
+        <v>0.1600712770171491</v>
       </c>
       <c r="F11">
-        <v>1.983575941216088</v>
+        <v>1.714296040369845</v>
       </c>
       <c r="G11">
-        <v>1.701815778802882</v>
+        <v>1.121196801144606</v>
       </c>
       <c r="H11">
-        <v>0.8920893317385605</v>
+        <v>1.00283897150311</v>
       </c>
       <c r="I11">
-        <v>1.423269286519229</v>
+        <v>1.201496678672257</v>
       </c>
       <c r="J11">
-        <v>0.1356141410292366</v>
+        <v>0.1898330956426264</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1342517679342166</v>
+        <v>0.2153779694200111</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
-        <v>5.427997976744621</v>
+        <v>4.318797991820588</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1538162172673765</v>
+        <v>0.2151895514568452</v>
       </c>
       <c r="D12">
-        <v>0.09864728591990968</v>
+        <v>0.1702006735885746</v>
       </c>
       <c r="E12">
-        <v>0.1062503326362751</v>
+        <v>0.1603045130335374</v>
       </c>
       <c r="F12">
-        <v>2.029628458515802</v>
+        <v>1.723394706965905</v>
       </c>
       <c r="G12">
-        <v>1.744410159440548</v>
+        <v>1.130349641506712</v>
       </c>
       <c r="H12">
-        <v>0.9107676576419692</v>
+        <v>1.006078217826229</v>
       </c>
       <c r="I12">
-        <v>1.456577809854366</v>
+        <v>1.208130248121662</v>
       </c>
       <c r="J12">
-        <v>0.1381079407308548</v>
+        <v>0.1901905446574759</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1364525206554887</v>
+        <v>0.2156422058602843</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
-        <v>5.557503203838735</v>
+        <v>4.345074874831539</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1532336453878145</v>
+        <v>0.215103085686053</v>
       </c>
       <c r="D13">
-        <v>0.09833996091878561</v>
+        <v>0.170166958595324</v>
       </c>
       <c r="E13">
-        <v>0.1058674489939406</v>
+        <v>0.1602538842571377</v>
       </c>
       <c r="F13">
-        <v>2.019687227724106</v>
+        <v>1.72142973136927</v>
       </c>
       <c r="G13">
-        <v>1.735216700901532</v>
+        <v>1.128374636983466</v>
       </c>
       <c r="H13">
-        <v>0.9067345367438406</v>
+        <v>1.005377681741322</v>
       </c>
       <c r="I13">
-        <v>1.449387649722297</v>
+        <v>1.206697766567885</v>
       </c>
       <c r="J13">
-        <v>0.1375693247878047</v>
+        <v>0.1901130586892208</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1359771205639859</v>
+        <v>0.21558477014716</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
-        <v>5.529547847204981</v>
+        <v>4.339401686917142</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1513394009816693</v>
+        <v>0.2148231751842218</v>
       </c>
       <c r="D14">
-        <v>0.09734099191570778</v>
+        <v>0.1700584369565448</v>
       </c>
       <c r="E14">
-        <v>0.1046228859116596</v>
+        <v>0.1600902864486393</v>
       </c>
       <c r="F14">
-        <v>1.987354428980751</v>
+        <v>1.715042152835011</v>
       </c>
       <c r="G14">
-        <v>1.705311109801215</v>
+        <v>1.121948109009395</v>
       </c>
       <c r="H14">
-        <v>0.893621353454904</v>
+        <v>1.003104156372274</v>
       </c>
       <c r="I14">
-        <v>1.426002190206901</v>
+        <v>1.202040703248613</v>
       </c>
       <c r="J14">
-        <v>0.1358186220533</v>
+        <v>0.1898622765234137</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1344321855631847</v>
+        <v>0.2153994704876681</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
-        <v>5.438623805962038</v>
+        <v>4.320953501781844</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1501834095219863</v>
+        <v>0.2146533156913222</v>
       </c>
       <c r="D15">
-        <v>0.09673159141652121</v>
+        <v>0.1699930639514804</v>
       </c>
       <c r="E15">
-        <v>0.1038636698093214</v>
+        <v>0.1599912416341276</v>
       </c>
       <c r="F15">
-        <v>1.967616031647012</v>
+        <v>1.7111454348438</v>
       </c>
       <c r="G15">
-        <v>1.687050730298637</v>
+        <v>1.118022733549765</v>
       </c>
       <c r="H15">
-        <v>0.8856192182975349</v>
+        <v>1.001720068927682</v>
       </c>
       <c r="I15">
-        <v>1.411725751583376</v>
+        <v>1.199199315425687</v>
       </c>
       <c r="J15">
-        <v>0.1347506949172441</v>
+        <v>0.1897101382579436</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1334900030507526</v>
+        <v>0.2152875147078461</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193664</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
-        <v>5.383115109068001</v>
+        <v>4.309694427688157</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1436224741820382</v>
+        <v>0.213704377217482</v>
       </c>
       <c r="D16">
-        <v>0.09327653871026342</v>
+        <v>0.1696353157803117</v>
       </c>
       <c r="E16">
-        <v>0.09955909057095269</v>
+        <v>0.15944150921203</v>
       </c>
       <c r="F16">
-        <v>1.855479220650906</v>
+        <v>1.689058099189793</v>
       </c>
       <c r="G16">
-        <v>1.583253223351392</v>
+        <v>1.095697496723432</v>
       </c>
       <c r="H16">
-        <v>0.8402054135068227</v>
+        <v>0.9939189882891242</v>
       </c>
       <c r="I16">
-        <v>1.330616321515294</v>
+        <v>1.183088178493151</v>
       </c>
       <c r="J16">
-        <v>0.1286963221297555</v>
+        <v>0.1888608915411112</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1281520307528297</v>
+        <v>0.2146696547928215</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
-        <v>5.067732859282501</v>
+        <v>4.245801412653179</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1396520330732187</v>
+        <v>0.2131440901764705</v>
       </c>
       <c r="D17">
-        <v>0.09118899126245594</v>
+        <v>0.169430935338184</v>
       </c>
       <c r="E17">
-        <v>0.09695793466038793</v>
+        <v>0.1591202178067732</v>
       </c>
       <c r="F17">
-        <v>1.787514188954859</v>
+        <v>1.67572535339248</v>
       </c>
       <c r="G17">
-        <v>1.520290689516628</v>
+        <v>1.08215294468414</v>
       </c>
       <c r="H17">
-        <v>0.8127223847936591</v>
+        <v>0.9892498833325192</v>
       </c>
       <c r="I17">
-        <v>1.281454027394886</v>
+        <v>1.173357816738289</v>
       </c>
       <c r="J17">
-        <v>0.1250380701416347</v>
+        <v>0.1883600890958448</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1249298592418526</v>
+        <v>0.2143118030945601</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849064385</v>
       </c>
       <c r="O17">
-        <v>4.8765545856931</v>
+        <v>4.207165875450755</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1373874934457149</v>
+        <v>0.2128298725900777</v>
       </c>
       <c r="D18">
-        <v>0.08999960964553821</v>
+        <v>0.1693189355982838</v>
       </c>
       <c r="E18">
-        <v>0.09547572632971679</v>
+        <v>0.1589412898942975</v>
       </c>
       <c r="F18">
-        <v>1.748709787895805</v>
+        <v>1.668136550989502</v>
       </c>
       <c r="G18">
-        <v>1.484323136773611</v>
+        <v>1.074418066012612</v>
       </c>
       <c r="H18">
-        <v>0.7970462363079776</v>
+        <v>0.9866072293752097</v>
       </c>
       <c r="I18">
-        <v>1.253383956037936</v>
+        <v>1.167817538883241</v>
       </c>
       <c r="J18">
-        <v>0.1229535179646675</v>
+        <v>0.1880794658424918</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1230950034995431</v>
+        <v>0.2141137719158905</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
-        <v>4.76739076000905</v>
+        <v>4.185149898488589</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1366239688368438</v>
+        <v>0.2127248668036543</v>
       </c>
       <c r="D19">
-        <v>0.08959880874855486</v>
+        <v>0.1692819693732446</v>
       </c>
       <c r="E19">
-        <v>0.09497620658099137</v>
+        <v>0.1588817170074925</v>
       </c>
       <c r="F19">
-        <v>1.735619088888797</v>
+        <v>1.66558083027995</v>
       </c>
       <c r="G19">
-        <v>1.472186109607662</v>
+        <v>1.071808716799694</v>
       </c>
       <c r="H19">
-        <v>0.7917604680336012</v>
+        <v>0.9857198426244622</v>
       </c>
       <c r="I19">
-        <v>1.243914311065168</v>
+        <v>1.165951380452924</v>
       </c>
       <c r="J19">
-        <v>0.1222509978284023</v>
+        <v>0.1879857276462076</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1224768446024598</v>
+        <v>0.214048061832564</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>3.828614786363971</v>
       </c>
       <c r="O19">
-        <v>4.730562231343072</v>
+        <v>4.177731083676065</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1400726918809028</v>
+        <v>0.2132029013794039</v>
       </c>
       <c r="D20">
-        <v>0.09141003280294768</v>
+        <v>0.1694521173488468</v>
       </c>
       <c r="E20">
-        <v>0.09723337881630201</v>
+        <v>0.1591538124464265</v>
       </c>
       <c r="F20">
-        <v>1.794719080915684</v>
+        <v>1.677136384886637</v>
       </c>
       <c r="G20">
-        <v>1.526967270949882</v>
+        <v>1.083589032134142</v>
       </c>
       <c r="H20">
-        <v>0.8156342474576661</v>
+        <v>0.9897424792849563</v>
       </c>
       <c r="I20">
-        <v>1.286665769149764</v>
+        <v>1.174387797112104</v>
       </c>
       <c r="J20">
-        <v>0.1254254497570173</v>
+        <v>0.1884126320830077</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1252709366222362</v>
+        <v>0.2143490904263388</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.957806003281064</v>
       </c>
       <c r="O20">
-        <v>4.896822313794132</v>
+        <v>4.211257359249259</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1518948876683197</v>
+        <v>0.2149050596126187</v>
       </c>
       <c r="D21">
-        <v>0.09763389031623149</v>
+        <v>0.1700900832874837</v>
       </c>
       <c r="E21">
-        <v>0.1049877913506663</v>
+        <v>0.1601380966499768</v>
       </c>
       <c r="F21">
-        <v>1.99683742212072</v>
+        <v>1.716915034907316</v>
       </c>
       <c r="G21">
-        <v>1.714082997097563</v>
+        <v>1.123833431493097</v>
       </c>
       <c r="H21">
-        <v>0.8974667039329347</v>
+        <v>1.003770172107522</v>
       </c>
       <c r="I21">
-        <v>1.432861025362172</v>
+        <v>1.203406262172692</v>
       </c>
       <c r="J21">
-        <v>0.1363319170704287</v>
+        <v>0.1899356303853068</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1348851036623486</v>
+        <v>0.2154535754410745</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571311</v>
       </c>
       <c r="O21">
-        <v>5.465291578067422</v>
+        <v>4.32636364289317</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1598109195064268</v>
+        <v>0.2160888860249486</v>
       </c>
       <c r="D22">
-        <v>0.1018120775810587</v>
+        <v>0.1705562753564323</v>
       </c>
       <c r="E22">
-        <v>0.1101934269313354</v>
+        <v>0.160833483903783</v>
       </c>
       <c r="F22">
-        <v>2.131858444109881</v>
+        <v>1.743622595914971</v>
       </c>
       <c r="G22">
-        <v>1.83891211816055</v>
+        <v>1.150630432038895</v>
       </c>
       <c r="H22">
-        <v>0.9522751874529547</v>
+        <v>1.013319185784383</v>
       </c>
       <c r="I22">
-        <v>1.530515612914684</v>
+        <v>1.222872785554273</v>
       </c>
       <c r="J22">
-        <v>0.1436554956489502</v>
+        <v>0.190996949417837</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1413512761137028</v>
+        <v>0.2162446253432933</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.673791817957863</v>
       </c>
       <c r="O22">
-        <v>5.84496396474708</v>
+        <v>4.40342629206998</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1555676758844129</v>
+        <v>0.2154505384675645</v>
       </c>
       <c r="D23">
-        <v>0.09957149218406158</v>
+        <v>0.1703029645130556</v>
       </c>
       <c r="E23">
-        <v>0.1074017794621902</v>
+        <v>0.1604575838574647</v>
       </c>
       <c r="F23">
-        <v>2.059508832484113</v>
+        <v>1.729303361729549</v>
       </c>
       <c r="G23">
-        <v>1.772038858350186</v>
+        <v>1.136283082525523</v>
       </c>
       <c r="H23">
-        <v>0.9228935273666536</v>
+        <v>1.008187866785562</v>
       </c>
       <c r="I23">
-        <v>1.478189098104806</v>
+        <v>1.212437301369036</v>
       </c>
       <c r="J23">
-        <v>0.1397277859172377</v>
+        <v>0.1904244769856049</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1378824957001399</v>
+        <v>0.2158161051854037</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190005457</v>
       </c>
       <c r="O23">
-        <v>5.641526862333592</v>
+        <v>4.362128778469753</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.139882455799281</v>
+        <v>0.2131762882285386</v>
       </c>
       <c r="D24">
-        <v>0.09131006645861817</v>
+        <v>0.1694425238239532</v>
       </c>
       <c r="E24">
-        <v>0.097108809451111</v>
+        <v>0.1591386062829621</v>
       </c>
       <c r="F24">
-        <v>1.7914609134546</v>
+        <v>1.676498219639768</v>
       </c>
       <c r="G24">
-        <v>1.523948074348795</v>
+        <v>1.082939614816098</v>
       </c>
       <c r="H24">
-        <v>0.814317409139278</v>
+        <v>0.9895196468177119</v>
       </c>
       <c r="I24">
-        <v>1.28430893933853</v>
+        <v>1.173921975274922</v>
       </c>
       <c r="J24">
-        <v>0.1252502576465417</v>
+        <v>0.188388854674578</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1251166808745268</v>
+        <v>0.2143322088292194</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
-        <v>4.887656958106618</v>
+        <v>4.209406988518879</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1236863284153884</v>
+        <v>0.2110308521808122</v>
       </c>
       <c r="D25">
-        <v>0.08282677994876764</v>
+        <v>0.1687268810625895</v>
       </c>
       <c r="E25">
-        <v>0.08653113980597027</v>
+        <v>0.15794040798162</v>
       </c>
       <c r="F25">
-        <v>1.513134036364292</v>
+        <v>1.622592143835831</v>
       </c>
       <c r="G25">
-        <v>1.265614643357452</v>
+        <v>1.027525122433985</v>
       </c>
       <c r="H25">
-        <v>0.7021473085825676</v>
+        <v>0.9710231873908697</v>
       </c>
       <c r="I25">
-        <v>1.082954729909517</v>
+        <v>1.134532267181612</v>
       </c>
       <c r="J25">
-        <v>0.1103721084549605</v>
+        <v>0.1864770691822457</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1120431793282251</v>
+        <v>0.2130297470713742</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
-        <v>4.10444564456094</v>
+        <v>4.052554133090439</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_181/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_181/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2097167003757363</v>
+        <v>0.1122888821158483</v>
       </c>
       <c r="D2">
-        <v>0.1683836165385131</v>
+        <v>0.07690030577381179</v>
       </c>
       <c r="E2">
-        <v>0.1572518775516087</v>
+        <v>0.07912628820666257</v>
       </c>
       <c r="F2">
-        <v>1.585520969950892</v>
+        <v>1.31570455011925</v>
       </c>
       <c r="G2">
-        <v>0.9885403027151654</v>
+        <v>1.081719305451202</v>
       </c>
       <c r="H2">
-        <v>0.9588152100885736</v>
+        <v>0.6230489430370483</v>
       </c>
       <c r="I2">
-        <v>1.107378677071793</v>
+        <v>0.9400865392417614</v>
       </c>
       <c r="J2">
-        <v>0.1853140390249806</v>
+        <v>0.09994857198985585</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2123279231338344</v>
+        <v>0.1029259134536531</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696401</v>
+        <v>7.663121664604034</v>
       </c>
       <c r="O2">
-        <v>3.943819789077793</v>
+        <v>3.548419648052572</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2089922281124075</v>
+        <v>0.104851551758955</v>
       </c>
       <c r="D3">
-        <v>0.1682660490980155</v>
+        <v>0.07306151383014736</v>
       </c>
       <c r="E3">
-        <v>0.1569064231003559</v>
+        <v>0.07431660011819119</v>
       </c>
       <c r="F3">
-        <v>1.562029610908397</v>
+        <v>1.185783470661036</v>
       </c>
       <c r="G3">
-        <v>0.9632484458719262</v>
+        <v>0.960289632216714</v>
       </c>
       <c r="H3">
-        <v>0.9514223883851685</v>
+        <v>0.5712815492702532</v>
       </c>
       <c r="I3">
-        <v>1.090128063910122</v>
+        <v>0.8460437425007541</v>
       </c>
       <c r="J3">
-        <v>0.1846786843179515</v>
+        <v>0.09316944467236965</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2120131430799503</v>
+        <v>0.09702394730885544</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679681</v>
+        <v>6.74968365211538</v>
       </c>
       <c r="O3">
-        <v>3.874334649243139</v>
+        <v>3.182193316393892</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2086295553525943</v>
+        <v>0.1004136930159589</v>
       </c>
       <c r="D4">
-        <v>0.1682508060830088</v>
+        <v>0.0707855076172379</v>
       </c>
       <c r="E4">
-        <v>0.156754217974111</v>
+        <v>0.07145714766013</v>
       </c>
       <c r="F4">
-        <v>1.548410802478642</v>
+        <v>1.107684170545951</v>
       </c>
       <c r="G4">
-        <v>0.9482747664937534</v>
+        <v>0.8870862973717664</v>
       </c>
       <c r="H4">
-        <v>0.9473179711940674</v>
+        <v>0.5403009492390822</v>
       </c>
       <c r="I4">
-        <v>1.080104027687717</v>
+        <v>0.7894981153136413</v>
       </c>
       <c r="J4">
-        <v>0.1843640825306565</v>
+        <v>0.08913368590043547</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2118993815216328</v>
+        <v>0.09352453137945105</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375818</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
-        <v>3.83374333843679</v>
+        <v>2.961871108490016</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2085024639892339</v>
+        <v>0.09863583676305865</v>
       </c>
       <c r="D5">
-        <v>0.1682589471704716</v>
+        <v>0.06987748812390748</v>
       </c>
       <c r="E5">
-        <v>0.1567072846195892</v>
+        <v>0.07031420100916819</v>
       </c>
       <c r="F5">
-        <v>1.543063623931715</v>
+        <v>1.076245764138719</v>
       </c>
       <c r="G5">
-        <v>0.9423126072119317</v>
+        <v>0.8575655972950074</v>
       </c>
       <c r="H5">
-        <v>0.9457548628083714</v>
+        <v>0.5278645121643848</v>
       </c>
       <c r="I5">
-        <v>1.076162072721203</v>
+        <v>0.7667324287384645</v>
       </c>
       <c r="J5">
-        <v>0.1842548947160054</v>
+        <v>0.08751902019459834</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2118730520794756</v>
+        <v>0.0921281082745864</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810513</v>
       </c>
       <c r="O5">
-        <v>3.817723608566013</v>
+        <v>2.873136365814787</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2084826120749383</v>
+        <v>0.09834242425205275</v>
       </c>
       <c r="D6">
-        <v>0.1682611668560412</v>
+        <v>0.0697278627276674</v>
       </c>
       <c r="E6">
-        <v>0.1567004036796718</v>
+        <v>0.07012572711636622</v>
       </c>
       <c r="F6">
-        <v>1.542187970625051</v>
+        <v>1.07104792996158</v>
       </c>
       <c r="G6">
-        <v>0.9413310356305118</v>
+        <v>0.8526815893797135</v>
       </c>
       <c r="H6">
-        <v>0.9455019260078359</v>
+        <v>0.5258104382675413</v>
       </c>
       <c r="I6">
-        <v>1.075516149641338</v>
+        <v>0.7629682691303969</v>
       </c>
       <c r="J6">
-        <v>0.1842379134401213</v>
+        <v>0.08725266071178339</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2118698908420669</v>
+        <v>0.09189797515568898</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>3.815095055259405</v>
+        <v>2.858462708597699</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2086277574812456</v>
+        <v>0.1003895945442892</v>
       </c>
       <c r="D7">
-        <v>0.168250857717112</v>
+        <v>0.07077318406769706</v>
       </c>
       <c r="E7">
-        <v>0.1567535238725988</v>
+        <v>0.07144164479201365</v>
       </c>
       <c r="F7">
-        <v>1.548337868022131</v>
+        <v>1.107258653581681</v>
       </c>
       <c r="G7">
-        <v>0.9481937929152764</v>
+        <v>0.8866869536462332</v>
       </c>
       <c r="H7">
-        <v>0.9472964471265044</v>
+        <v>0.540132482086463</v>
       </c>
       <c r="I7">
-        <v>1.080050286271579</v>
+        <v>0.7891899978245505</v>
       </c>
       <c r="J7">
-        <v>0.1843625329574934</v>
+        <v>0.08911179117495749</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2118989452889579</v>
+        <v>0.09350558094396888</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851395496</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
-        <v>3.833525178567527</v>
+        <v>2.960670275997472</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2094498752796596</v>
+        <v>0.1096966924940261</v>
       </c>
       <c r="D8">
-        <v>0.1683312804555186</v>
+        <v>0.07555931251670955</v>
       </c>
       <c r="E8">
-        <v>0.1571203477302276</v>
+        <v>0.07744767347411141</v>
       </c>
       <c r="F8">
-        <v>1.577254170375852</v>
+        <v>1.270540106642883</v>
       </c>
       <c r="G8">
-        <v>0.9797043527197076</v>
+        <v>1.039550190200103</v>
       </c>
       <c r="H8">
-        <v>0.956176000301781</v>
+        <v>0.6050238302055391</v>
       </c>
       <c r="I8">
-        <v>1.101312856878153</v>
+        <v>0.9073972918589206</v>
       </c>
       <c r="J8">
-        <v>0.1850793129123574</v>
+        <v>0.09758365569421557</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2122029039557418</v>
+        <v>0.1008640570209778</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209825</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
-        <v>3.919431255942072</v>
+        <v>3.421143729983385</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2117123634842812</v>
+        <v>0.129054088537373</v>
       </c>
       <c r="D9">
-        <v>0.1689394810343856</v>
+        <v>0.08563165406071249</v>
       </c>
       <c r="E9">
-        <v>0.1583139770019706</v>
+        <v>0.09003037571011419</v>
       </c>
       <c r="F9">
-        <v>1.640343245647259</v>
+        <v>1.605610492425583</v>
       </c>
       <c r="G9">
-        <v>1.0459087253912</v>
+        <v>1.351549030635937</v>
       </c>
       <c r="H9">
-        <v>0.977034632017876</v>
+        <v>0.7393414534311376</v>
       </c>
       <c r="I9">
-        <v>1.147513289427891</v>
+        <v>1.149862167601583</v>
       </c>
       <c r="J9">
-        <v>0.1870830904522549</v>
+        <v>0.1152947752847666</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2134285881979281</v>
+        <v>0.1163622808910532</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O9">
-        <v>4.104339501691754</v>
+        <v>4.364741184859383</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2137693990294878</v>
+        <v>0.1440781865261727</v>
       </c>
       <c r="D10">
-        <v>0.169659388917637</v>
+        <v>0.09351630819489287</v>
       </c>
       <c r="E10">
-        <v>0.1594789656587814</v>
+        <v>0.09985783027068962</v>
       </c>
       <c r="F10">
-        <v>1.690590273277024</v>
+        <v>1.863274627250107</v>
       </c>
       <c r="G10">
-        <v>1.097250556706456</v>
+        <v>1.590472241195442</v>
       </c>
       <c r="H10">
-        <v>0.9944575747461215</v>
+        <v>0.8433597280125866</v>
       </c>
       <c r="I10">
-        <v>1.184206116318762</v>
+        <v>1.336254968095545</v>
       </c>
       <c r="J10">
-        <v>0.1889190421312961</v>
+        <v>0.1291164761897363</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2147115437645724</v>
+        <v>0.1285222634306251</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837536</v>
       </c>
       <c r="O10">
-        <v>4.250237925732279</v>
+        <v>5.089659024545085</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2147905982925948</v>
+        <v>0.1511180875007909</v>
       </c>
       <c r="D11">
-        <v>0.170045870394226</v>
+        <v>0.09722430871239851</v>
       </c>
       <c r="E11">
-        <v>0.1600712770171491</v>
+        <v>0.1044775171239003</v>
       </c>
       <c r="F11">
-        <v>1.714296040369845</v>
+        <v>1.983575941216102</v>
       </c>
       <c r="G11">
-        <v>1.121196801144606</v>
+        <v>1.701815778802825</v>
       </c>
       <c r="H11">
-        <v>1.00283897150311</v>
+        <v>0.8920893317384468</v>
       </c>
       <c r="I11">
-        <v>1.201496678672257</v>
+        <v>1.423269286519243</v>
       </c>
       <c r="J11">
-        <v>0.1898330956426264</v>
+        <v>0.135614141029194</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2153779694200111</v>
+        <v>0.1342517679342734</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731763</v>
       </c>
       <c r="O11">
-        <v>4.318797991820588</v>
+        <v>5.427997976744507</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2151895514568452</v>
+        <v>0.1538162172668933</v>
       </c>
       <c r="D12">
-        <v>0.1702006735885746</v>
+        <v>0.09864728592000205</v>
       </c>
       <c r="E12">
-        <v>0.1603045130335374</v>
+        <v>0.1062503326362751</v>
       </c>
       <c r="F12">
-        <v>1.723394706965905</v>
+        <v>2.029628458515774</v>
       </c>
       <c r="G12">
-        <v>1.130349641506712</v>
+        <v>1.744410159440548</v>
       </c>
       <c r="H12">
-        <v>1.006078217826229</v>
+        <v>0.9107676576419692</v>
       </c>
       <c r="I12">
-        <v>1.208130248121662</v>
+        <v>1.456577809854323</v>
       </c>
       <c r="J12">
-        <v>0.1901905446574759</v>
+        <v>0.1381079407309116</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2156422058602843</v>
+        <v>0.1364525206553893</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>4.345074874831539</v>
+        <v>5.557503203838735</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.215103085686053</v>
+        <v>0.1532336453874024</v>
       </c>
       <c r="D13">
-        <v>0.170166958595324</v>
+        <v>0.09833996091899877</v>
       </c>
       <c r="E13">
-        <v>0.1602538842571377</v>
+        <v>0.1058674489939406</v>
       </c>
       <c r="F13">
-        <v>1.72142973136927</v>
+        <v>2.019687227724091</v>
       </c>
       <c r="G13">
-        <v>1.128374636983466</v>
+        <v>1.735216700901589</v>
       </c>
       <c r="H13">
-        <v>1.005377681741322</v>
+        <v>0.9067345367439259</v>
       </c>
       <c r="I13">
-        <v>1.206697766567885</v>
+        <v>1.449387649722283</v>
       </c>
       <c r="J13">
-        <v>0.1901130586892208</v>
+        <v>0.1375693247878544</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.21558477014716</v>
+        <v>0.1359771205639788</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
-        <v>4.339401686917142</v>
+        <v>5.529547847204924</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2148231751842218</v>
+        <v>0.1513394009816693</v>
       </c>
       <c r="D14">
-        <v>0.1700584369565448</v>
+        <v>0.09734099191581436</v>
       </c>
       <c r="E14">
-        <v>0.1600902864486393</v>
+        <v>0.1046228859116312</v>
       </c>
       <c r="F14">
-        <v>1.715042152835011</v>
+        <v>1.987354428980737</v>
       </c>
       <c r="G14">
-        <v>1.121948109009395</v>
+        <v>1.705311109801329</v>
       </c>
       <c r="H14">
-        <v>1.003104156372274</v>
+        <v>0.8936213534550177</v>
       </c>
       <c r="I14">
-        <v>1.202040703248613</v>
+        <v>1.426002190206901</v>
       </c>
       <c r="J14">
-        <v>0.1898622765234137</v>
+        <v>0.1358186220532929</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2153994704876681</v>
+        <v>0.1344321855631847</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
-        <v>4.320953501781844</v>
+        <v>5.438623805962095</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2146533156913222</v>
+        <v>0.1501834095220147</v>
       </c>
       <c r="D15">
-        <v>0.1699930639514804</v>
+        <v>0.09673159141642174</v>
       </c>
       <c r="E15">
-        <v>0.1599912416341276</v>
+        <v>0.1038636698093214</v>
       </c>
       <c r="F15">
-        <v>1.7111454348438</v>
+        <v>1.967616031646997</v>
       </c>
       <c r="G15">
-        <v>1.118022733549765</v>
+        <v>1.687050730298722</v>
       </c>
       <c r="H15">
-        <v>1.001720068927682</v>
+        <v>0.8856192182975349</v>
       </c>
       <c r="I15">
-        <v>1.199199315425687</v>
+        <v>1.411725751583376</v>
       </c>
       <c r="J15">
-        <v>0.1897101382579436</v>
+        <v>0.134750694917237</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2152875147078461</v>
+        <v>0.1334900030508024</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193675</v>
       </c>
       <c r="O15">
-        <v>4.309694427688157</v>
+        <v>5.383115109067944</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.213704377217482</v>
+        <v>0.1436224741822514</v>
       </c>
       <c r="D16">
-        <v>0.1696353157803117</v>
+        <v>0.093276538710235</v>
       </c>
       <c r="E16">
-        <v>0.15944150921203</v>
+        <v>0.09955909057093848</v>
       </c>
       <c r="F16">
-        <v>1.689058099189793</v>
+        <v>1.855479220650906</v>
       </c>
       <c r="G16">
-        <v>1.095697496723432</v>
+        <v>1.583253223351505</v>
       </c>
       <c r="H16">
-        <v>0.9939189882891242</v>
+        <v>0.8402054135068227</v>
       </c>
       <c r="I16">
-        <v>1.183088178493151</v>
+        <v>1.330616321515279</v>
       </c>
       <c r="J16">
-        <v>0.1888608915411112</v>
+        <v>0.1286963221297057</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2146696547928215</v>
+        <v>0.1281520307526094</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
-        <v>4.245801412653179</v>
+        <v>5.067732859282501</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2131440901764705</v>
+        <v>0.139652033073034</v>
       </c>
       <c r="D17">
-        <v>0.169430935338184</v>
+        <v>0.09118899126234226</v>
       </c>
       <c r="E17">
-        <v>0.1591202178067732</v>
+        <v>0.09695793466038083</v>
       </c>
       <c r="F17">
-        <v>1.67572535339248</v>
+        <v>1.787514188954859</v>
       </c>
       <c r="G17">
-        <v>1.08215294468414</v>
+        <v>1.520290689516656</v>
       </c>
       <c r="H17">
-        <v>0.9892498833325192</v>
+        <v>0.8127223847936591</v>
       </c>
       <c r="I17">
-        <v>1.173357816738289</v>
+        <v>1.281454027394872</v>
       </c>
       <c r="J17">
-        <v>0.1883600890958448</v>
+        <v>0.1250380701415281</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2143118030945601</v>
+        <v>0.1249298592418526</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849064385</v>
+        <v>10.80051555282944</v>
       </c>
       <c r="O17">
-        <v>4.207165875450755</v>
+        <v>4.8765545856931</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2128298725900777</v>
+        <v>0.1373874934457717</v>
       </c>
       <c r="D18">
-        <v>0.1693189355982838</v>
+        <v>0.08999960964543874</v>
       </c>
       <c r="E18">
-        <v>0.1589412898942975</v>
+        <v>0.09547572632969903</v>
       </c>
       <c r="F18">
-        <v>1.668136550989502</v>
+        <v>1.748709787895777</v>
       </c>
       <c r="G18">
-        <v>1.074418066012612</v>
+        <v>1.484323136773554</v>
       </c>
       <c r="H18">
-        <v>0.9866072293752097</v>
+        <v>0.7970462363079776</v>
       </c>
       <c r="I18">
-        <v>1.167817538883241</v>
+        <v>1.253383956037936</v>
       </c>
       <c r="J18">
-        <v>0.1880794658424918</v>
+        <v>0.1229535179646533</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2141137719158905</v>
+        <v>0.1230950034994933</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.55149949033301</v>
       </c>
       <c r="O18">
-        <v>4.185149898488589</v>
+        <v>4.767390760009107</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2127248668036543</v>
+        <v>0.1366239688364743</v>
       </c>
       <c r="D19">
-        <v>0.1692819693732446</v>
+        <v>0.08959880874855486</v>
       </c>
       <c r="E19">
-        <v>0.1588817170074925</v>
+        <v>0.09497620658100558</v>
       </c>
       <c r="F19">
-        <v>1.66558083027995</v>
+        <v>1.735619088888754</v>
       </c>
       <c r="G19">
-        <v>1.071808716799694</v>
+        <v>1.472186109607691</v>
       </c>
       <c r="H19">
-        <v>0.9857198426244622</v>
+        <v>0.7917604680336865</v>
       </c>
       <c r="I19">
-        <v>1.165951380452924</v>
+        <v>1.243914311065168</v>
       </c>
       <c r="J19">
-        <v>0.1879857276462076</v>
+        <v>0.1222509978284094</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.214048061832564</v>
+        <v>0.1224768446024811</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786363971</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>4.177731083676065</v>
+        <v>4.730562231343015</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2132029013794039</v>
+        <v>0.140072691880917</v>
       </c>
       <c r="D20">
-        <v>0.1694521173488468</v>
+        <v>0.09141003280275584</v>
       </c>
       <c r="E20">
-        <v>0.1591538124464265</v>
+        <v>0.09723337881631267</v>
       </c>
       <c r="F20">
-        <v>1.677136384886637</v>
+        <v>1.794719080915684</v>
       </c>
       <c r="G20">
-        <v>1.083589032134142</v>
+        <v>1.526967270949882</v>
       </c>
       <c r="H20">
-        <v>0.9897424792849563</v>
+        <v>0.8156342474576661</v>
       </c>
       <c r="I20">
-        <v>1.174387797112104</v>
+        <v>1.286665769149764</v>
       </c>
       <c r="J20">
-        <v>0.1884126320830077</v>
+        <v>0.1254254497570244</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2143490904263388</v>
+        <v>0.1252709366222433</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.957806003281064</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>4.211257359249259</v>
+        <v>4.896822313794132</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2149050596126187</v>
+        <v>0.151894887668405</v>
       </c>
       <c r="D21">
-        <v>0.1700900832874837</v>
+        <v>0.0976338903162457</v>
       </c>
       <c r="E21">
-        <v>0.1601380966499768</v>
+        <v>0.1049877913507586</v>
       </c>
       <c r="F21">
-        <v>1.716915034907316</v>
+        <v>1.996837422120706</v>
       </c>
       <c r="G21">
-        <v>1.123833431493097</v>
+        <v>1.714082997097591</v>
       </c>
       <c r="H21">
-        <v>1.003770172107522</v>
+        <v>0.8974667039330484</v>
       </c>
       <c r="I21">
-        <v>1.203406262172692</v>
+        <v>1.432861025362186</v>
       </c>
       <c r="J21">
-        <v>0.1899356303853068</v>
+        <v>0.1363319170704287</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2154535754410745</v>
+        <v>0.1348851036623557</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571311</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>4.32636364289317</v>
+        <v>5.465291578067365</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2160888860249486</v>
+        <v>0.159810919506441</v>
       </c>
       <c r="D22">
-        <v>0.1705562753564323</v>
+        <v>0.1018120775809521</v>
       </c>
       <c r="E22">
-        <v>0.160833483903783</v>
+        <v>0.1101934269313141</v>
       </c>
       <c r="F22">
-        <v>1.743622595914971</v>
+        <v>2.131858444109881</v>
       </c>
       <c r="G22">
-        <v>1.150630432038895</v>
+        <v>1.838912118160522</v>
       </c>
       <c r="H22">
-        <v>1.013319185784383</v>
+        <v>0.9522751874529547</v>
       </c>
       <c r="I22">
-        <v>1.222872785554273</v>
+        <v>1.530515612914684</v>
       </c>
       <c r="J22">
-        <v>0.190996949417837</v>
+        <v>0.1436554956489005</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2162446253432933</v>
+        <v>0.1413512761137667</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.673791817957863</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
-        <v>4.40342629206998</v>
+        <v>5.84496396474708</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2154505384675645</v>
+        <v>0.1555676758845266</v>
       </c>
       <c r="D23">
-        <v>0.1703029645130556</v>
+        <v>0.0995714921839479</v>
       </c>
       <c r="E23">
-        <v>0.1604575838574647</v>
+        <v>0.1074017794621902</v>
       </c>
       <c r="F23">
-        <v>1.729303361729549</v>
+        <v>2.059508832484113</v>
       </c>
       <c r="G23">
-        <v>1.136283082525523</v>
+        <v>1.772038858350214</v>
       </c>
       <c r="H23">
-        <v>1.008187866785562</v>
+        <v>0.9228935273666536</v>
       </c>
       <c r="I23">
-        <v>1.212437301369036</v>
+        <v>1.478189098104806</v>
       </c>
       <c r="J23">
-        <v>0.1904244769856049</v>
+        <v>0.1397277859172448</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2158161051854037</v>
+        <v>0.137882495700147</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190005457</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>4.362128778469753</v>
+        <v>5.641526862333535</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2131762882285386</v>
+        <v>0.1398824557991531</v>
       </c>
       <c r="D24">
-        <v>0.1694425238239532</v>
+        <v>0.09131006645851159</v>
       </c>
       <c r="E24">
-        <v>0.1591386062829621</v>
+        <v>0.097108809451111</v>
       </c>
       <c r="F24">
-        <v>1.676498219639768</v>
+        <v>1.791460913454614</v>
       </c>
       <c r="G24">
-        <v>1.082939614816098</v>
+        <v>1.523948074348795</v>
       </c>
       <c r="H24">
-        <v>0.9895196468177119</v>
+        <v>0.814317409139278</v>
       </c>
       <c r="I24">
-        <v>1.173921975274922</v>
+        <v>1.284308939338516</v>
       </c>
       <c r="J24">
-        <v>0.188388854674578</v>
+        <v>0.125250257646492</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2143322088292194</v>
+        <v>0.1251166808745836</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>4.209406988518879</v>
+        <v>4.887656958106618</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2110308521808122</v>
+        <v>0.1236863284152179</v>
       </c>
       <c r="D25">
-        <v>0.1687268810625895</v>
+        <v>0.08282677994886711</v>
       </c>
       <c r="E25">
-        <v>0.15794040798162</v>
+        <v>0.08653113980596672</v>
       </c>
       <c r="F25">
-        <v>1.622592143835831</v>
+        <v>1.513134036364264</v>
       </c>
       <c r="G25">
-        <v>1.027525122433985</v>
+        <v>1.26561464335748</v>
       </c>
       <c r="H25">
-        <v>0.9710231873908697</v>
+        <v>0.7021473085825392</v>
       </c>
       <c r="I25">
-        <v>1.134532267181612</v>
+        <v>1.082954729909517</v>
       </c>
       <c r="J25">
-        <v>0.1864770691822457</v>
+        <v>0.1103721084549889</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2130297470713742</v>
+        <v>0.1120431793281469</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>4.052554133090439</v>
+        <v>4.10444564456094</v>
       </c>
     </row>
   </sheetData>
